--- a/data/pca/factorExposure/factorExposure_2010-05-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-05-18.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01645996920922863</v>
+        <v>-0.01723549423216756</v>
       </c>
       <c r="C2">
-        <v>-0.0008092720896926175</v>
+        <v>0.001012039746942144</v>
       </c>
       <c r="D2">
-        <v>-0.01772247703196505</v>
+        <v>0.009423863774915317</v>
       </c>
       <c r="E2">
-        <v>-0.0215273697574831</v>
+        <v>-0.0002985617218177301</v>
       </c>
       <c r="F2">
-        <v>0.0132091076584127</v>
+        <v>-0.01234991212803598</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.121529325384092</v>
+        <v>-0.09403590661991405</v>
       </c>
       <c r="C4">
-        <v>0.1041579734933987</v>
+        <v>0.01737602944917654</v>
       </c>
       <c r="D4">
-        <v>0.01584650249653653</v>
+        <v>0.08296545277041101</v>
       </c>
       <c r="E4">
-        <v>-0.01742636308906758</v>
+        <v>0.02970139805275802</v>
       </c>
       <c r="F4">
-        <v>0.02459562162790302</v>
+        <v>0.03382943131794842</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1310481595571845</v>
+        <v>-0.1525063264432682</v>
       </c>
       <c r="C6">
-        <v>0.06175108385232711</v>
+        <v>0.02467370955209008</v>
       </c>
       <c r="D6">
-        <v>-0.001557700436446806</v>
+        <v>-0.0233392891186933</v>
       </c>
       <c r="E6">
-        <v>0.03552736239355156</v>
+        <v>0.009010891891298308</v>
       </c>
       <c r="F6">
-        <v>0.01871898037054718</v>
+        <v>0.04009216856570844</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06721064330367128</v>
+        <v>-0.06114321393871408</v>
       </c>
       <c r="C7">
-        <v>0.06812665672385351</v>
+        <v>-0.0001664367249256783</v>
       </c>
       <c r="D7">
-        <v>-0.007021267324935067</v>
+        <v>0.05204735836482949</v>
       </c>
       <c r="E7">
-        <v>-0.02847305578426396</v>
+        <v>0.01644422737254669</v>
       </c>
       <c r="F7">
-        <v>0.008555669944540462</v>
+        <v>0.05447103844363963</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.04445112237646594</v>
+        <v>-0.05916148432296814</v>
       </c>
       <c r="C8">
-        <v>0.0379658195411333</v>
+        <v>-0.01283986452797409</v>
       </c>
       <c r="D8">
-        <v>-0.004055712336354662</v>
+        <v>0.0302557741383154</v>
       </c>
       <c r="E8">
-        <v>0.02742651586398381</v>
+        <v>0.0141465358231408</v>
       </c>
       <c r="F8">
-        <v>0.01259382716374636</v>
+        <v>-0.028804055019427</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08624927863989465</v>
+        <v>-0.0719616428463051</v>
       </c>
       <c r="C9">
-        <v>0.07809260845359819</v>
+        <v>0.0136284835257727</v>
       </c>
       <c r="D9">
-        <v>0.02533546170808662</v>
+        <v>0.08253309438902126</v>
       </c>
       <c r="E9">
-        <v>-0.01197722024810843</v>
+        <v>0.02539448681122807</v>
       </c>
       <c r="F9">
-        <v>0.009081059239888062</v>
+        <v>0.05620602039987175</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.130466102767085</v>
+        <v>-0.09360701978805908</v>
       </c>
       <c r="C10">
-        <v>-0.16525899805078</v>
+        <v>0.01591076399842097</v>
       </c>
       <c r="D10">
-        <v>-0.02355174497259721</v>
+        <v>-0.1705662806939751</v>
       </c>
       <c r="E10">
-        <v>-0.03080977932177268</v>
+        <v>-0.03634037840715714</v>
       </c>
       <c r="F10">
-        <v>0.02087757949383058</v>
+        <v>-0.05168977794023364</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.07313256358336133</v>
+        <v>-0.08803336194149444</v>
       </c>
       <c r="C11">
-        <v>0.07287542434167592</v>
+        <v>0.01288615179191262</v>
       </c>
       <c r="D11">
-        <v>0.03167340350303661</v>
+        <v>0.1132554361196434</v>
       </c>
       <c r="E11">
-        <v>0.007667060760938861</v>
+        <v>0.0464218591387695</v>
       </c>
       <c r="F11">
-        <v>0.0001741339023756042</v>
+        <v>0.02437422171023879</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.06841645893567916</v>
+        <v>-0.09363090568391898</v>
       </c>
       <c r="C12">
-        <v>0.07621829371497289</v>
+        <v>0.01090556924879227</v>
       </c>
       <c r="D12">
-        <v>0.04795473626742271</v>
+        <v>0.1199003130775366</v>
       </c>
       <c r="E12">
-        <v>-0.02165834267042487</v>
+        <v>0.04599576872688124</v>
       </c>
       <c r="F12">
-        <v>-0.02831659906672065</v>
+        <v>0.0244949372944279</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.03770041694233142</v>
+        <v>-0.04401318755473393</v>
       </c>
       <c r="C13">
-        <v>0.04273361573919731</v>
+        <v>0.004524070132305896</v>
       </c>
       <c r="D13">
-        <v>-0.01864207878510499</v>
+        <v>0.04651633184713613</v>
       </c>
       <c r="E13">
-        <v>-0.03053997509940789</v>
+        <v>-0.01199429362781275</v>
       </c>
       <c r="F13">
-        <v>-0.000622128536899969</v>
+        <v>0.01553883151241425</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02843036908748172</v>
+        <v>-0.02167227920334172</v>
       </c>
       <c r="C14">
-        <v>0.0251878958562428</v>
+        <v>0.01478250759573476</v>
       </c>
       <c r="D14">
-        <v>0.02281243419599735</v>
+        <v>0.03243226016518901</v>
       </c>
       <c r="E14">
-        <v>-0.0002086299392038696</v>
+        <v>0.01883265572026878</v>
       </c>
       <c r="F14">
-        <v>-0.005831939285132679</v>
+        <v>0.02050041063621374</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01748832176663899</v>
+        <v>-0.03214936799842803</v>
       </c>
       <c r="C15">
-        <v>0.02454727400086465</v>
+        <v>0.005649553199761978</v>
       </c>
       <c r="D15">
-        <v>-0.06395415033848315</v>
+        <v>0.04519803790454102</v>
       </c>
       <c r="E15">
-        <v>-0.017016360616189</v>
+        <v>0.00924306617717373</v>
       </c>
       <c r="F15">
-        <v>0.01532104337681362</v>
+        <v>0.03164179674766669</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07981372958925796</v>
+        <v>-0.07486725811570404</v>
       </c>
       <c r="C16">
-        <v>0.07736922496707974</v>
+        <v>0.004522369551043915</v>
       </c>
       <c r="D16">
-        <v>0.04007795287824289</v>
+        <v>0.1155067096292399</v>
       </c>
       <c r="E16">
-        <v>0.02015788688874038</v>
+        <v>0.06144826845941301</v>
       </c>
       <c r="F16">
-        <v>-0.01253735981246883</v>
+        <v>0.03375992712668009</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02150406035687787</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003751320072556588</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02071707946037581</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01130618541971527</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02357769193885185</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04094517388572056</v>
+        <v>-0.06136209133941343</v>
       </c>
       <c r="C20">
-        <v>0.02740665519351345</v>
+        <v>0.002183316781410846</v>
       </c>
       <c r="D20">
-        <v>-0.02872841145002521</v>
+        <v>0.07219991644852965</v>
       </c>
       <c r="E20">
-        <v>-0.01982320296073462</v>
+        <v>0.05406764295544445</v>
       </c>
       <c r="F20">
-        <v>-0.01721298913114441</v>
+        <v>0.0285854358587368</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.0233844769270429</v>
+        <v>-0.03868721872219606</v>
       </c>
       <c r="C21">
-        <v>0.02011377080563176</v>
+        <v>0.00773360862978663</v>
       </c>
       <c r="D21">
-        <v>0.01531845392901572</v>
+        <v>0.03571790603953408</v>
       </c>
       <c r="E21">
-        <v>0.002125343187918339</v>
+        <v>-0.009070696289040014</v>
       </c>
       <c r="F21">
-        <v>-0.01303235879748178</v>
+        <v>-0.01951717534185882</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05753998767148579</v>
+        <v>-0.04290179463431113</v>
       </c>
       <c r="C22">
-        <v>0.02825900962139456</v>
+        <v>0.0003298428044348353</v>
       </c>
       <c r="D22">
-        <v>-0.6371668876868064</v>
+        <v>0.00145274875155405</v>
       </c>
       <c r="E22">
-        <v>-0.1045149104869031</v>
+        <v>0.02951061538441716</v>
       </c>
       <c r="F22">
-        <v>-0.1637787574516702</v>
+        <v>-0.01326621248090878</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.0582929181866962</v>
+        <v>-0.04296724602135117</v>
       </c>
       <c r="C23">
-        <v>0.03028078189941402</v>
+        <v>0.0003561500650429048</v>
       </c>
       <c r="D23">
-        <v>-0.6396149192855282</v>
+        <v>0.001640370499131104</v>
       </c>
       <c r="E23">
-        <v>-0.1042438401456465</v>
+        <v>0.02989497748857849</v>
       </c>
       <c r="F23">
-        <v>-0.1635225051026169</v>
+        <v>-0.01272922388019432</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08004356032532527</v>
+        <v>-0.08135166252072915</v>
       </c>
       <c r="C24">
-        <v>0.07357051286717189</v>
+        <v>0.004768697527493428</v>
       </c>
       <c r="D24">
-        <v>0.03526934855279622</v>
+        <v>0.1162558844024282</v>
       </c>
       <c r="E24">
-        <v>0.002616166673003452</v>
+        <v>0.04931704900419032</v>
       </c>
       <c r="F24">
-        <v>-0.01721319816644138</v>
+        <v>0.02575725489718244</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07895574173744502</v>
+        <v>-0.08563236415161514</v>
       </c>
       <c r="C25">
-        <v>0.06935433773026953</v>
+        <v>0.006692375179520297</v>
       </c>
       <c r="D25">
-        <v>0.05075095784676506</v>
+        <v>0.1042007932769674</v>
       </c>
       <c r="E25">
-        <v>-0.007854368996781491</v>
+        <v>0.03221241412481317</v>
       </c>
       <c r="F25">
-        <v>-0.002130495108423775</v>
+        <v>0.03371073511018173</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.03795044399179644</v>
+        <v>-0.05562421423938872</v>
       </c>
       <c r="C26">
-        <v>0.001286559339414105</v>
+        <v>0.01561495390813016</v>
       </c>
       <c r="D26">
-        <v>-0.01302823241945386</v>
+        <v>0.03367475891524797</v>
       </c>
       <c r="E26">
-        <v>0.02556879608967011</v>
+        <v>0.02554795494458549</v>
       </c>
       <c r="F26">
-        <v>-0.05428604086719178</v>
+        <v>-0.006476207219016093</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.161903587029316</v>
+        <v>-0.1399709269011801</v>
       </c>
       <c r="C28">
-        <v>-0.2664645118820728</v>
+        <v>0.0135934203104102</v>
       </c>
       <c r="D28">
-        <v>-4.106168298211679e-05</v>
+        <v>-0.2694348834237567</v>
       </c>
       <c r="E28">
-        <v>0.06370197774962713</v>
+        <v>-0.0671101971522525</v>
       </c>
       <c r="F28">
-        <v>-0.01911188447304822</v>
+        <v>0.03452919792247669</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02786786871272755</v>
+        <v>-0.02699196672991188</v>
       </c>
       <c r="C29">
-        <v>0.02346596776164691</v>
+        <v>0.009145984661591092</v>
       </c>
       <c r="D29">
-        <v>0.02587261473416434</v>
+        <v>0.03086037968544803</v>
       </c>
       <c r="E29">
-        <v>-0.02720698775397555</v>
+        <v>0.01153330869491681</v>
       </c>
       <c r="F29">
-        <v>-0.02485068287678202</v>
+        <v>-0.01003567411214943</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.09863228063272994</v>
+        <v>-0.06452257965227819</v>
       </c>
       <c r="C30">
-        <v>0.07872407733391988</v>
+        <v>0.006412347777220555</v>
       </c>
       <c r="D30">
-        <v>0.02468562733139418</v>
+        <v>0.08073129708362739</v>
       </c>
       <c r="E30">
-        <v>0.06984053656812245</v>
+        <v>0.02385878166032428</v>
       </c>
       <c r="F30">
-        <v>-0.2229170590054103</v>
+        <v>0.1147377930220842</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03172257500064782</v>
+        <v>-0.04881035765653548</v>
       </c>
       <c r="C31">
-        <v>0.05803899728852579</v>
+        <v>0.01520091160154213</v>
       </c>
       <c r="D31">
-        <v>0.00301261666778298</v>
+        <v>0.02898534649167023</v>
       </c>
       <c r="E31">
-        <v>-0.02146664999478615</v>
+        <v>0.02761199455555346</v>
       </c>
       <c r="F31">
-        <v>0.01197071532965772</v>
+        <v>-0.00274539417311899</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04857330385440753</v>
+        <v>-0.04827691656280998</v>
       </c>
       <c r="C32">
-        <v>0.01867459718479204</v>
+        <v>0.0003365114163052207</v>
       </c>
       <c r="D32">
-        <v>0.054007791871485</v>
+        <v>0.02993939349365684</v>
       </c>
       <c r="E32">
-        <v>0.07403910132435564</v>
+        <v>0.02886708980961823</v>
       </c>
       <c r="F32">
-        <v>0.04282222744275021</v>
+        <v>0.001916188416250671</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08419551213219023</v>
+        <v>-0.09037498782008312</v>
       </c>
       <c r="C33">
-        <v>0.06237888425818271</v>
+        <v>0.009841083141219934</v>
       </c>
       <c r="D33">
-        <v>0.03407321344311292</v>
+        <v>0.09208691378745686</v>
       </c>
       <c r="E33">
-        <v>0.0007654463482385746</v>
+        <v>0.04592302603570358</v>
       </c>
       <c r="F33">
-        <v>-0.02049978998770411</v>
+        <v>0.04026857655277068</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06918112407318576</v>
+        <v>-0.06898383235932903</v>
       </c>
       <c r="C34">
-        <v>0.06105341405499465</v>
+        <v>0.01286397894555837</v>
       </c>
       <c r="D34">
-        <v>0.03969001411311317</v>
+        <v>0.0970230130830488</v>
       </c>
       <c r="E34">
-        <v>0.005856916713721836</v>
+        <v>0.03424286909190757</v>
       </c>
       <c r="F34">
-        <v>-0.005316013316356875</v>
+        <v>0.04792285343066192</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01144740814832694</v>
+        <v>-0.02420091361899063</v>
       </c>
       <c r="C35">
-        <v>0.01039060387667642</v>
+        <v>0.00266512921747133</v>
       </c>
       <c r="D35">
-        <v>-0.0004883937865084138</v>
+        <v>0.01077732717918985</v>
       </c>
       <c r="E35">
-        <v>-0.01072098162357521</v>
+        <v>0.01115746681961171</v>
       </c>
       <c r="F35">
-        <v>-0.007006945593070299</v>
+        <v>0.01187995903276128</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02233724553519037</v>
+        <v>-0.02482989607121153</v>
       </c>
       <c r="C36">
-        <v>0.01603790535985416</v>
+        <v>0.007232263020596136</v>
       </c>
       <c r="D36">
-        <v>-0.01109418014998464</v>
+        <v>0.03778520344712107</v>
       </c>
       <c r="E36">
-        <v>0.006278736921904302</v>
+        <v>0.01683906100660407</v>
       </c>
       <c r="F36">
-        <v>-0.02181285499199879</v>
+        <v>0.008183027453916801</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0143455160301894</v>
+        <v>-0.002153890867424622</v>
       </c>
       <c r="C38">
-        <v>0.03112318187140559</v>
+        <v>0.0003780048393332055</v>
       </c>
       <c r="D38">
-        <v>-0.02131523071096027</v>
+        <v>0.002241951342565878</v>
       </c>
       <c r="E38">
-        <v>-0.03773976843302645</v>
+        <v>0.002695410993252595</v>
       </c>
       <c r="F38">
-        <v>-0.06310258227050257</v>
+        <v>-0.00133669498042425</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1101925446633075</v>
+        <v>-0.1101780649544223</v>
       </c>
       <c r="C39">
-        <v>0.1001125341786446</v>
+        <v>0.01840784381444964</v>
       </c>
       <c r="D39">
-        <v>0.1381746700624977</v>
+        <v>0.1492447150862366</v>
       </c>
       <c r="E39">
-        <v>0.02583228226407278</v>
+        <v>0.05759379135521515</v>
       </c>
       <c r="F39">
-        <v>-0.1034847394059067</v>
+        <v>0.03474185195635789</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02528059419285381</v>
+        <v>-0.03742636675920592</v>
       </c>
       <c r="C40">
-        <v>0.06537233295408905</v>
+        <v>0.007581707179185953</v>
       </c>
       <c r="D40">
-        <v>-0.02672995426150511</v>
+        <v>0.03100853401885267</v>
       </c>
       <c r="E40">
-        <v>-0.06465228840700397</v>
+        <v>0.004595493598464465</v>
       </c>
       <c r="F40">
-        <v>-0.002710580296977641</v>
+        <v>-0.02075060379741304</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.03357651032722308</v>
+        <v>-0.02654172277658108</v>
       </c>
       <c r="C41">
-        <v>0.024207117716784</v>
+        <v>0.006942132755520081</v>
       </c>
       <c r="D41">
-        <v>0.02148563905314039</v>
+        <v>0.0106250138317496</v>
       </c>
       <c r="E41">
-        <v>-0.01713121644019309</v>
+        <v>0.01215088056462421</v>
       </c>
       <c r="F41">
-        <v>-0.008006434744216025</v>
+        <v>-0.0104801583289349</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04239987987680235</v>
+        <v>-0.04213365343887445</v>
       </c>
       <c r="C43">
-        <v>0.03191416659030503</v>
+        <v>0.007156428541700873</v>
       </c>
       <c r="D43">
-        <v>-0.005311877671376813</v>
+        <v>0.02078803137803419</v>
       </c>
       <c r="E43">
-        <v>-0.00736479500495103</v>
+        <v>0.02570777650876822</v>
       </c>
       <c r="F43">
-        <v>-0.02699841357841773</v>
+        <v>-0.01103763413983323</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1031126409221155</v>
+        <v>-0.07306378552011211</v>
       </c>
       <c r="C44">
-        <v>0.1134569935725786</v>
+        <v>0.02253945769350153</v>
       </c>
       <c r="D44">
-        <v>-0.07860650589359702</v>
+        <v>0.09926604577246689</v>
       </c>
       <c r="E44">
-        <v>-0.04277631598833808</v>
+        <v>0.0682969814471692</v>
       </c>
       <c r="F44">
-        <v>-0.04006252648221938</v>
+        <v>0.1721414581972306</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02334800441902802</v>
+        <v>-0.02275062345908864</v>
       </c>
       <c r="C46">
-        <v>-0.001343583408722482</v>
+        <v>0.004097856104085393</v>
       </c>
       <c r="D46">
-        <v>-0.02393011516469497</v>
+        <v>0.01111798386769708</v>
       </c>
       <c r="E46">
-        <v>-0.03142132137249994</v>
+        <v>0.02335707647453471</v>
       </c>
       <c r="F46">
-        <v>-0.04991680054353596</v>
+        <v>-0.001786740400325615</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.0410277722243336</v>
+        <v>-0.05244812997550354</v>
       </c>
       <c r="C47">
-        <v>0.03101548869112407</v>
+        <v>0.003399435339304347</v>
       </c>
       <c r="D47">
-        <v>0.001688176180397063</v>
+        <v>0.0123101271294008</v>
       </c>
       <c r="E47">
-        <v>-0.01463127070028961</v>
+        <v>0.02154703400157749</v>
       </c>
       <c r="F47">
-        <v>-0.005551448792770299</v>
+        <v>-0.04498922080595485</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04210856320918752</v>
+        <v>-0.04761053387352655</v>
       </c>
       <c r="C48">
-        <v>0.01699290112886059</v>
+        <v>0.003272215092891232</v>
       </c>
       <c r="D48">
-        <v>0.01355343092226406</v>
+        <v>0.04659327378664131</v>
       </c>
       <c r="E48">
-        <v>-0.01623342210671092</v>
+        <v>-0.005607892614544304</v>
       </c>
       <c r="F48">
-        <v>0.004263360482450324</v>
+        <v>0.01360903545088046</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2205711027817917</v>
+        <v>-0.2029685175479992</v>
       </c>
       <c r="C49">
-        <v>0.0007857681646227443</v>
+        <v>0.01710543991112335</v>
       </c>
       <c r="D49">
-        <v>0.04304148496591769</v>
+        <v>-0.009647027186127737</v>
       </c>
       <c r="E49">
-        <v>-0.09846812309818044</v>
+        <v>0.03749657328329785</v>
       </c>
       <c r="F49">
-        <v>0.02580152427562215</v>
+        <v>0.03021039314211663</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03965392269129313</v>
+        <v>-0.04852187931820407</v>
       </c>
       <c r="C50">
-        <v>0.03141552616361994</v>
+        <v>0.01118064992373035</v>
       </c>
       <c r="D50">
-        <v>0.01875996999576245</v>
+        <v>0.0261060096045771</v>
       </c>
       <c r="E50">
-        <v>-0.002656009891493432</v>
+        <v>0.02877812482056638</v>
       </c>
       <c r="F50">
-        <v>-0.03495346542578268</v>
+        <v>0.007831989696160453</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.02274094394519954</v>
+        <v>-0.00305949988162989</v>
       </c>
       <c r="C51">
-        <v>-0.009123497004262009</v>
+        <v>0.0007665121115355399</v>
       </c>
       <c r="D51">
-        <v>-0.002971729649954211</v>
+        <v>-0.002150340291163493</v>
       </c>
       <c r="E51">
-        <v>-0.01825438785244862</v>
+        <v>0.0006449805660783262</v>
       </c>
       <c r="F51">
-        <v>0.0308709813584846</v>
+        <v>0.005671815217747331</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.07210487176639367</v>
+        <v>-0.1444519213991694</v>
       </c>
       <c r="C52">
-        <v>0.06519324896436675</v>
+        <v>0.01323233014978595</v>
       </c>
       <c r="D52">
-        <v>0.02222629470317532</v>
+        <v>0.05012213756847421</v>
       </c>
       <c r="E52">
-        <v>2.04816153160162e-05</v>
+        <v>0.020666118811669</v>
       </c>
       <c r="F52">
-        <v>-0.04616849925006442</v>
+        <v>0.03533314040753993</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1574121495899399</v>
+        <v>-0.1735702059541221</v>
       </c>
       <c r="C53">
-        <v>0.06554007956044856</v>
+        <v>0.01602220831565519</v>
       </c>
       <c r="D53">
-        <v>-0.01104272175028033</v>
+        <v>0.01371659017368095</v>
       </c>
       <c r="E53">
-        <v>-0.04245537070159452</v>
+        <v>0.03618677339900258</v>
       </c>
       <c r="F53">
-        <v>-0.05638051106992882</v>
+        <v>0.06810053851204748</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.0561036389359246</v>
+        <v>-0.02254738290306664</v>
       </c>
       <c r="C54">
-        <v>0.06862021709654992</v>
+        <v>0.01270611144686199</v>
       </c>
       <c r="D54">
-        <v>0.001599320742021475</v>
+        <v>0.03377904632082459</v>
       </c>
       <c r="E54">
-        <v>-0.01373502295564588</v>
+        <v>0.01511031603018379</v>
       </c>
       <c r="F54">
-        <v>0.0266078551345178</v>
+        <v>-0.003409437242097537</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08410475040005533</v>
+        <v>-0.1146312822630707</v>
       </c>
       <c r="C55">
-        <v>0.05377351776920242</v>
+        <v>0.01471655077587018</v>
       </c>
       <c r="D55">
-        <v>0.03371569038492404</v>
+        <v>0.01277490445855786</v>
       </c>
       <c r="E55">
-        <v>-0.01987204474165472</v>
+        <v>0.03041185799214449</v>
       </c>
       <c r="F55">
-        <v>-0.01482826381976894</v>
+        <v>0.0511818137588518</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1443054731486565</v>
+        <v>-0.1776764220616208</v>
       </c>
       <c r="C56">
-        <v>0.0820171815511227</v>
+        <v>0.01348746895012024</v>
       </c>
       <c r="D56">
-        <v>0.03029348396864042</v>
+        <v>0.007963753147830068</v>
       </c>
       <c r="E56">
-        <v>-0.07248059512900638</v>
+        <v>0.04023550564622217</v>
       </c>
       <c r="F56">
-        <v>-0.04305801796889493</v>
+        <v>0.03943926621356953</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04993309268653669</v>
+        <v>-0.04707469769298841</v>
       </c>
       <c r="C58">
-        <v>0.03840986373861733</v>
+        <v>0.003019983482524149</v>
       </c>
       <c r="D58">
-        <v>-0.03755495359639507</v>
+        <v>0.06362244814384954</v>
       </c>
       <c r="E58">
-        <v>-0.02405805489840613</v>
+        <v>0.02175220371356587</v>
       </c>
       <c r="F58">
-        <v>-0.02775295406509739</v>
+        <v>-0.04995641198163638</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2168630782694622</v>
+        <v>-0.1708254359644978</v>
       </c>
       <c r="C59">
-        <v>-0.2292577062349654</v>
+        <v>0.01518913173693224</v>
       </c>
       <c r="D59">
-        <v>0.04133867605040263</v>
+        <v>-0.2280260253761469</v>
       </c>
       <c r="E59">
-        <v>0.01671054933290739</v>
+        <v>-0.04851650453037534</v>
       </c>
       <c r="F59">
-        <v>0.08440530634181309</v>
+        <v>-0.03336017988905705</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2227202423376867</v>
+        <v>-0.2380699642891969</v>
       </c>
       <c r="C60">
-        <v>0.1174909623964835</v>
+        <v>-0.004181628027734564</v>
       </c>
       <c r="D60">
-        <v>0.0848987520275692</v>
+        <v>0.04936355493128764</v>
       </c>
       <c r="E60">
-        <v>-0.1302483568790055</v>
+        <v>0.00885378929689583</v>
       </c>
       <c r="F60">
-        <v>-0.001502131696213798</v>
+        <v>-0.03746448255784991</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.109978467046335</v>
+        <v>-0.08500227784123794</v>
       </c>
       <c r="C61">
-        <v>0.07585778108227037</v>
+        <v>0.01438023363620872</v>
       </c>
       <c r="D61">
-        <v>0.08310144338184383</v>
+        <v>0.1101153236738193</v>
       </c>
       <c r="E61">
-        <v>-0.01168774854429767</v>
+        <v>0.03946412973185683</v>
       </c>
       <c r="F61">
-        <v>-0.05546897672652948</v>
+        <v>0.02012133836458255</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1417314964985134</v>
+        <v>-0.1703064765881336</v>
       </c>
       <c r="C62">
-        <v>0.06857778336381912</v>
+        <v>0.0174124968553379</v>
       </c>
       <c r="D62">
-        <v>0.003176846678364084</v>
+        <v>0.01162169194444995</v>
       </c>
       <c r="E62">
-        <v>-0.0546251592670275</v>
+        <v>0.03753229091396383</v>
       </c>
       <c r="F62">
-        <v>-0.04077452467136145</v>
+        <v>0.02009021168216704</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04595430062789762</v>
+        <v>-0.04260829340716561</v>
       </c>
       <c r="C63">
-        <v>0.0307493997378544</v>
+        <v>0.003990885323265701</v>
       </c>
       <c r="D63">
-        <v>0.008553704319570669</v>
+        <v>0.0486807337455654</v>
       </c>
       <c r="E63">
-        <v>0.02701699782565117</v>
+        <v>0.01978747075322492</v>
       </c>
       <c r="F63">
-        <v>-0.009608567698747648</v>
+        <v>0.0103401733876549</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09118431752978029</v>
+        <v>-0.112634409582502</v>
       </c>
       <c r="C64">
-        <v>0.05125766387602813</v>
+        <v>0.01201698897333131</v>
       </c>
       <c r="D64">
-        <v>0.009748285839753379</v>
+        <v>0.04085414993552847</v>
       </c>
       <c r="E64">
-        <v>-0.06725015674258587</v>
+        <v>0.02055083537816732</v>
       </c>
       <c r="F64">
-        <v>-0.05750727074093919</v>
+        <v>0.01922148432246665</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.121180169011825</v>
+        <v>-0.1439746176484369</v>
       </c>
       <c r="C65">
-        <v>0.05218175449729289</v>
+        <v>0.03121998168339066</v>
       </c>
       <c r="D65">
-        <v>0.01840815601127367</v>
+        <v>-0.04485025191804268</v>
       </c>
       <c r="E65">
-        <v>0.04879093759480923</v>
+        <v>0.0004160092685104036</v>
       </c>
       <c r="F65">
-        <v>-0.03176433089622504</v>
+        <v>0.04239163256995655</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1225494227103717</v>
+        <v>-0.1317202150420257</v>
       </c>
       <c r="C66">
-        <v>0.1209318476887466</v>
+        <v>0.0158818085341829</v>
       </c>
       <c r="D66">
-        <v>0.1303337949286615</v>
+        <v>0.1368833760477687</v>
       </c>
       <c r="E66">
-        <v>0.005887506957092409</v>
+        <v>0.06438182858095394</v>
       </c>
       <c r="F66">
-        <v>-0.1359111494540433</v>
+        <v>0.04001322393506557</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06235176834235474</v>
+        <v>-0.06333244923338895</v>
       </c>
       <c r="C67">
-        <v>0.03814675159402182</v>
+        <v>0.003708600171007697</v>
       </c>
       <c r="D67">
-        <v>-0.0356122424784444</v>
+        <v>0.05505544679417724</v>
       </c>
       <c r="E67">
-        <v>-0.01865495244547624</v>
+        <v>0.02003600781077306</v>
       </c>
       <c r="F67">
-        <v>-0.05216783726454514</v>
+        <v>-0.04140669768402397</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1366824247982704</v>
+        <v>-0.1143434535502353</v>
       </c>
       <c r="C68">
-        <v>-0.2398809510327461</v>
+        <v>0.02463069065214911</v>
       </c>
       <c r="D68">
-        <v>0.0129831834854246</v>
+        <v>-0.2665710109421531</v>
       </c>
       <c r="E68">
-        <v>0.06720213601649867</v>
+        <v>-0.08533757179193451</v>
       </c>
       <c r="F68">
-        <v>0.0009394299723890448</v>
+        <v>0.04096262298106324</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03867893947648495</v>
+        <v>-0.0397246548505764</v>
       </c>
       <c r="C69">
-        <v>-0.008094832763884093</v>
+        <v>0.001132906373347286</v>
       </c>
       <c r="D69">
-        <v>0.000202704278766982</v>
+        <v>0.009150528164022356</v>
       </c>
       <c r="E69">
-        <v>-0.006497766614878436</v>
+        <v>0.02405075181367029</v>
       </c>
       <c r="F69">
-        <v>-0.03824845624758879</v>
+        <v>-0.01348678735547151</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03896502652181134</v>
+        <v>-0.06396543424846984</v>
       </c>
       <c r="C70">
-        <v>0.01506890268998214</v>
+        <v>-0.02760290503702019</v>
       </c>
       <c r="D70">
-        <v>0.0388348384210294</v>
+        <v>0.02617548995819341</v>
       </c>
       <c r="E70">
-        <v>-0.0208829936259532</v>
+        <v>-0.04870697590337941</v>
       </c>
       <c r="F70">
-        <v>-0.05446626590658802</v>
+        <v>-0.3055658067794574</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1538207639264091</v>
+        <v>-0.1330896602180411</v>
       </c>
       <c r="C71">
-        <v>-0.2627069163175184</v>
+        <v>0.02875772263161074</v>
       </c>
       <c r="D71">
-        <v>0.005120488587985269</v>
+        <v>-0.2822823815878116</v>
       </c>
       <c r="E71">
-        <v>0.03445246163831531</v>
+        <v>-0.09325577912593851</v>
       </c>
       <c r="F71">
-        <v>-0.05665281952884687</v>
+        <v>0.04371866410967239</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1400894361704352</v>
+        <v>-0.1385572826617291</v>
       </c>
       <c r="C72">
-        <v>0.02825402253554411</v>
+        <v>0.0243506390563801</v>
       </c>
       <c r="D72">
-        <v>0.004997897785100005</v>
+        <v>0.004382595623851368</v>
       </c>
       <c r="E72">
-        <v>-0.01106193291764995</v>
+        <v>0.04330971072257597</v>
       </c>
       <c r="F72">
-        <v>-0.04386492588718608</v>
+        <v>0.02287536581672834</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2120833017982652</v>
+        <v>-0.2058008231597215</v>
       </c>
       <c r="C73">
-        <v>0.03819548082437706</v>
+        <v>0.01158534813705145</v>
       </c>
       <c r="D73">
-        <v>0.127319011421448</v>
+        <v>0.01632893811513411</v>
       </c>
       <c r="E73">
-        <v>-0.1557135083822193</v>
+        <v>0.06388298820125593</v>
       </c>
       <c r="F73">
-        <v>-0.04193005378845287</v>
+        <v>0.02991600966605484</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1056898324384249</v>
+        <v>-0.09406708151601273</v>
       </c>
       <c r="C74">
-        <v>0.0912695875069664</v>
+        <v>0.0119577816887311</v>
       </c>
       <c r="D74">
-        <v>0.01164818021221541</v>
+        <v>0.02364813499544221</v>
       </c>
       <c r="E74">
-        <v>-0.01960282957165151</v>
+        <v>0.04924593666738696</v>
       </c>
       <c r="F74">
-        <v>-0.07521581985544659</v>
+        <v>0.04295158618368797</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.09911682969793781</v>
+        <v>-0.1300820854528507</v>
       </c>
       <c r="C75">
-        <v>0.06677189741575765</v>
+        <v>0.02629248855124684</v>
       </c>
       <c r="D75">
-        <v>0.008630890661164728</v>
+        <v>0.03353975216759725</v>
       </c>
       <c r="E75">
-        <v>-0.01740489018955935</v>
+        <v>0.05980160959353614</v>
       </c>
       <c r="F75">
-        <v>0.02527868404015367</v>
+        <v>0.01329540704410883</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.04025735863972096</v>
+        <v>-0.005505915660599731</v>
       </c>
       <c r="C76">
-        <v>0.01605354504668425</v>
+        <v>0.001249611517066859</v>
       </c>
       <c r="D76">
-        <v>0.00651221682871813</v>
+        <v>-0.0005386941262813893</v>
       </c>
       <c r="E76">
-        <v>-0.03392786805533113</v>
+        <v>0.003725393689876622</v>
       </c>
       <c r="F76">
-        <v>0.01267404224145841</v>
+        <v>0.004326096820510392</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06774588484488465</v>
+        <v>-0.0794586435671196</v>
       </c>
       <c r="C77">
-        <v>0.03480325991151485</v>
+        <v>0.01049727613974872</v>
       </c>
       <c r="D77">
-        <v>0.03125441582796828</v>
+        <v>0.1092136325233449</v>
       </c>
       <c r="E77">
-        <v>-0.03583381883465948</v>
+        <v>0.0360711279661104</v>
       </c>
       <c r="F77">
-        <v>-0.001176244795444197</v>
+        <v>0.03056059148018067</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1343448242593448</v>
+        <v>-0.1068242457492601</v>
       </c>
       <c r="C78">
-        <v>0.1273122181270222</v>
+        <v>0.04219175934023708</v>
       </c>
       <c r="D78">
-        <v>-0.1875004335275528</v>
+        <v>0.1188764790402249</v>
       </c>
       <c r="E78">
-        <v>0.06006539850354257</v>
+        <v>0.08665910644874016</v>
       </c>
       <c r="F78">
-        <v>0.845100805505984</v>
+        <v>0.07230407906512742</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1330128969312031</v>
+        <v>-0.164004086955448</v>
       </c>
       <c r="C79">
-        <v>0.08122601926572823</v>
+        <v>0.02030835438289985</v>
       </c>
       <c r="D79">
-        <v>-0.003718914079240089</v>
+        <v>0.01944703397548918</v>
       </c>
       <c r="E79">
-        <v>-0.05232845488786936</v>
+        <v>0.04731379756930985</v>
       </c>
       <c r="F79">
-        <v>-0.03589698505017262</v>
+        <v>0.01158082258860905</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07183413026139129</v>
+        <v>-0.08027749979606584</v>
       </c>
       <c r="C80">
-        <v>0.05667533068443095</v>
+        <v>-0.0004680617592225041</v>
       </c>
       <c r="D80">
-        <v>0.07912778023722376</v>
+        <v>0.0571516195275678</v>
       </c>
       <c r="E80">
-        <v>0.006889691006041311</v>
+        <v>0.03305070682941767</v>
       </c>
       <c r="F80">
-        <v>0.005899633911442464</v>
+        <v>-0.01588242136924621</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1310789666294843</v>
+        <v>-0.1236439974452321</v>
       </c>
       <c r="C81">
-        <v>0.086736592384048</v>
+        <v>0.03024734864033232</v>
       </c>
       <c r="D81">
-        <v>-0.0004966626170143335</v>
+        <v>0.01925966800026035</v>
       </c>
       <c r="E81">
-        <v>-0.04617884882441665</v>
+        <v>0.05969237172403156</v>
       </c>
       <c r="F81">
-        <v>-0.01091834256157376</v>
+        <v>0.003647757556409</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1342540865209118</v>
+        <v>-0.163484366219994</v>
       </c>
       <c r="C82">
-        <v>0.06107533701061258</v>
+        <v>0.02085411619970279</v>
       </c>
       <c r="D82">
-        <v>0.01920110339086074</v>
+        <v>0.01651209601427451</v>
       </c>
       <c r="E82">
-        <v>-0.02337919782789572</v>
+        <v>0.0343716757340508</v>
       </c>
       <c r="F82">
-        <v>-0.05162529854324193</v>
+        <v>0.06110007490510563</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08746446944258091</v>
+        <v>-0.06500555157581576</v>
       </c>
       <c r="C83">
-        <v>0.1657001850914224</v>
+        <v>0.00396640908648294</v>
       </c>
       <c r="D83">
-        <v>0.01473914126787446</v>
+        <v>0.04966268387738165</v>
       </c>
       <c r="E83">
-        <v>-0.006134761047463075</v>
+        <v>0.005649973942079932</v>
       </c>
       <c r="F83">
-        <v>0.002188492276348074</v>
+        <v>-0.04110441114120294</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05869632038367158</v>
+        <v>-0.05925253476999665</v>
       </c>
       <c r="C84">
-        <v>-0.1057550051094731</v>
+        <v>0.01141722400812311</v>
       </c>
       <c r="D84">
-        <v>0.04241699379238059</v>
+        <v>0.06092404646864429</v>
       </c>
       <c r="E84">
-        <v>-0.01123858963222321</v>
+        <v>-0.001317190067655279</v>
       </c>
       <c r="F84">
-        <v>0.1018728998576067</v>
+        <v>0.01217007842674322</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1179081782508524</v>
+        <v>-0.1385389350763412</v>
       </c>
       <c r="C85">
-        <v>0.05077390357506212</v>
+        <v>0.02572767254955202</v>
       </c>
       <c r="D85">
-        <v>0.00984844417372829</v>
+        <v>0.01474144633036595</v>
       </c>
       <c r="E85">
-        <v>-0.06838614270759828</v>
+        <v>0.04047700260791494</v>
       </c>
       <c r="F85">
-        <v>-0.04207212067041043</v>
+        <v>0.04568818556993214</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.0891952782300332</v>
+        <v>-0.09780509897481085</v>
       </c>
       <c r="C86">
-        <v>0.02504699323300361</v>
+        <v>-0.00688308930367065</v>
       </c>
       <c r="D86">
-        <v>-0.008560843941646204</v>
+        <v>0.02257408316485335</v>
       </c>
       <c r="E86">
-        <v>-0.1703369230038163</v>
+        <v>0.138191694052857</v>
       </c>
       <c r="F86">
-        <v>0.2045366379652142</v>
+        <v>-0.8524674689415029</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1196161151855676</v>
+        <v>-0.09911649462998673</v>
       </c>
       <c r="C87">
-        <v>0.1367416720699575</v>
+        <v>0.02518568966386792</v>
       </c>
       <c r="D87">
-        <v>-0.00652456684695657</v>
+        <v>0.07759712908716217</v>
       </c>
       <c r="E87">
-        <v>-0.07652007670110705</v>
+        <v>-0.05093575954897375</v>
       </c>
       <c r="F87">
-        <v>0.002693826768179261</v>
+        <v>0.08034533207941501</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05197699250853548</v>
+        <v>-0.06211643946813308</v>
       </c>
       <c r="C88">
-        <v>0.05576407068652905</v>
+        <v>0.00332869868968201</v>
       </c>
       <c r="D88">
-        <v>0.04445893907132135</v>
+        <v>0.05348435104016454</v>
       </c>
       <c r="E88">
-        <v>-0.02839496713278458</v>
+        <v>0.02722437750880863</v>
       </c>
       <c r="F88">
-        <v>-0.04051130539549289</v>
+        <v>0.009751891218345366</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.22117847091268</v>
+        <v>-0.1338104517296669</v>
       </c>
       <c r="C89">
-        <v>-0.361090240857113</v>
+        <v>0.007044838079705307</v>
       </c>
       <c r="D89">
-        <v>-0.06147009521221111</v>
+        <v>-0.2624689028168528</v>
       </c>
       <c r="E89">
-        <v>0.02064966400826336</v>
+        <v>-0.09101704976911877</v>
       </c>
       <c r="F89">
-        <v>0.02658240150444353</v>
+        <v>0.02589214327407272</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1676240505603373</v>
+        <v>-0.1448421190823129</v>
       </c>
       <c r="C90">
-        <v>-0.2517395288443301</v>
+        <v>0.02435843217639814</v>
       </c>
       <c r="D90">
-        <v>0.002531403186721155</v>
+        <v>-0.2703481404663092</v>
       </c>
       <c r="E90">
-        <v>0.0213141350782323</v>
+        <v>-0.1062634980136438</v>
       </c>
       <c r="F90">
-        <v>-0.04643701800905432</v>
+        <v>0.02638588732014754</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07756703042418377</v>
+        <v>-0.118356187874255</v>
       </c>
       <c r="C91">
-        <v>0.05662883877216671</v>
+        <v>0.01653184112544239</v>
       </c>
       <c r="D91">
-        <v>0.01252446566876681</v>
+        <v>-0.006257314193640566</v>
       </c>
       <c r="E91">
-        <v>-0.04406058577174558</v>
+        <v>0.05700358125195751</v>
       </c>
       <c r="F91">
-        <v>-0.003334677057010758</v>
+        <v>-0.02094427678129775</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1873555592822062</v>
+        <v>-0.1481356007365369</v>
       </c>
       <c r="C92">
-        <v>-0.2948408984514194</v>
+        <v>0.01611985748467531</v>
       </c>
       <c r="D92">
-        <v>-0.03267588959920859</v>
+        <v>-0.3016788435250527</v>
       </c>
       <c r="E92">
-        <v>0.04292583873354189</v>
+        <v>-0.1019352878389654</v>
       </c>
       <c r="F92">
-        <v>0.01236026784764387</v>
+        <v>0.02331907571506128</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1714944755332802</v>
+        <v>-0.1487898118098443</v>
       </c>
       <c r="C93">
-        <v>-0.3041071072389585</v>
+        <v>0.02079548671236339</v>
       </c>
       <c r="D93">
-        <v>0.03871766340150193</v>
+        <v>-0.2724138579884317</v>
       </c>
       <c r="E93">
-        <v>0.03053950917295457</v>
+        <v>-0.0725333415463163</v>
       </c>
       <c r="F93">
-        <v>-0.03840841176533286</v>
+        <v>0.01990410905383295</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1266703353637901</v>
+        <v>-0.1337448041539499</v>
       </c>
       <c r="C94">
-        <v>0.07406618796546213</v>
+        <v>0.02374107335419334</v>
       </c>
       <c r="D94">
-        <v>-0.004260384597810106</v>
+        <v>0.04660664171642066</v>
       </c>
       <c r="E94">
-        <v>-0.03812528392914855</v>
+        <v>0.06134126821670178</v>
       </c>
       <c r="F94">
-        <v>-0.0112736320086232</v>
+        <v>0.03133873083490829</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1158896310616587</v>
+        <v>-0.1259193203945541</v>
       </c>
       <c r="C95">
-        <v>0.05616478207494</v>
+        <v>0.005619325442912198</v>
       </c>
       <c r="D95">
-        <v>-0.01786486808148243</v>
+        <v>0.09140382470714502</v>
       </c>
       <c r="E95">
-        <v>-0.04109604623581817</v>
+        <v>0.04437389111475384</v>
       </c>
       <c r="F95">
-        <v>0.07209706449656707</v>
+        <v>-0.01257816980702146</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.00407717019326522</v>
+        <v>-0.09768255145379263</v>
       </c>
       <c r="C96">
-        <v>0.009475593376706422</v>
+        <v>-0.9890491838672225</v>
       </c>
       <c r="D96">
-        <v>-0.001685790774908029</v>
+        <v>-0.02448334100909419</v>
       </c>
       <c r="E96">
-        <v>-0.005001153472091305</v>
+        <v>0.0591279829442574</v>
       </c>
       <c r="F96">
-        <v>0.02197130421385378</v>
+        <v>0.04818475598331936</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.170616376159081</v>
+        <v>-0.1865479943121422</v>
       </c>
       <c r="C97">
-        <v>0.1841855890541203</v>
+        <v>-0.01166660887858569</v>
       </c>
       <c r="D97">
-        <v>-0.1146605736185692</v>
+        <v>-0.007978401829549833</v>
       </c>
       <c r="E97">
-        <v>0.887409737329632</v>
+        <v>0.0150782422175027</v>
       </c>
       <c r="F97">
-        <v>-0.05756840980951059</v>
+        <v>-0.1740827775266292</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2259170825476928</v>
+        <v>-0.2049020979878506</v>
       </c>
       <c r="C98">
-        <v>0.05604097114750015</v>
+        <v>0.006900223732285583</v>
       </c>
       <c r="D98">
-        <v>-0.0810764748485714</v>
+        <v>0.01378336586253009</v>
       </c>
       <c r="E98">
-        <v>-0.02678890442919173</v>
+        <v>-0.09332794918975001</v>
       </c>
       <c r="F98">
-        <v>0.09864749426508393</v>
+        <v>-0.1286724051531093</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05895271009073179</v>
+        <v>-0.05722587154215159</v>
       </c>
       <c r="C99">
-        <v>0.0219818686955092</v>
+        <v>-0.003387962688998674</v>
       </c>
       <c r="D99">
-        <v>-0.004133955311326228</v>
+        <v>0.0352105182521345</v>
       </c>
       <c r="E99">
-        <v>-0.02794742495458124</v>
+        <v>0.02629527581173388</v>
       </c>
       <c r="F99">
-        <v>0.01215892451944984</v>
+        <v>0.004865429070539735</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.00240967489385388</v>
+        <v>-0.1240963004116286</v>
       </c>
       <c r="C100">
-        <v>0.0005976504512106954</v>
+        <v>-0.04919143030698516</v>
       </c>
       <c r="D100">
-        <v>-0.005909530231792023</v>
+        <v>0.3370174937592447</v>
       </c>
       <c r="E100">
-        <v>0.1269670878555959</v>
+        <v>-0.9007071594098573</v>
       </c>
       <c r="F100">
-        <v>-0.03814315313334266</v>
+        <v>-0.05854192604699428</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.027438867470799</v>
+        <v>-0.02692758921335761</v>
       </c>
       <c r="C101">
-        <v>0.02391388536667334</v>
+        <v>0.009148798386914639</v>
       </c>
       <c r="D101">
-        <v>0.02692320293457522</v>
+        <v>0.03059960951722906</v>
       </c>
       <c r="E101">
-        <v>-0.02738378891917235</v>
+        <v>0.01107481672109005</v>
       </c>
       <c r="F101">
-        <v>-0.0224387704932861</v>
+        <v>-0.01211089494962572</v>
       </c>
     </row>
     <row r="102" spans="1:6">
